--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>1.825133965249555</v>
+        <v>3.958659185818667</v>
       </c>
       <c r="R2">
-        <v>16.426205687246</v>
+        <v>35.627932672368</v>
       </c>
       <c r="S2">
-        <v>0.0008515786086793732</v>
+        <v>0.001380874960391545</v>
       </c>
       <c r="T2">
-        <v>0.0008515786086793729</v>
+        <v>0.001380874960391545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>17.42648350035155</v>
+        <v>28.69481578454045</v>
       </c>
       <c r="R3">
-        <v>156.838351503164</v>
+        <v>258.253342060864</v>
       </c>
       <c r="S3">
-        <v>0.008130921267126993</v>
+        <v>0.01000943772878128</v>
       </c>
       <c r="T3">
-        <v>0.008130921267126992</v>
+        <v>0.01000943772878129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>12.18587425214267</v>
+        <v>21.17247796634311</v>
       </c>
       <c r="R4">
-        <v>109.672868269284</v>
+        <v>190.552301697088</v>
       </c>
       <c r="S4">
-        <v>0.005685735972681075</v>
+        <v>0.007385466467510178</v>
       </c>
       <c r="T4">
-        <v>0.005685735972681074</v>
+        <v>0.007385466467510178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>1.097740077891333</v>
+        <v>2.665014481978667</v>
       </c>
       <c r="R5">
-        <v>9.879660701021999</v>
+        <v>23.985130337808</v>
       </c>
       <c r="S5">
-        <v>0.0005121881385262967</v>
+        <v>0.0009296207616024251</v>
       </c>
       <c r="T5">
-        <v>0.0005121881385262965</v>
+        <v>0.0009296207616024253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>111.8998516024618</v>
+        <v>147.3971869733887</v>
       </c>
       <c r="R6">
-        <v>1007.098664422156</v>
+        <v>1326.574682760498</v>
       </c>
       <c r="S6">
-        <v>0.05221069891492774</v>
+        <v>0.05141566251847238</v>
       </c>
       <c r="T6">
-        <v>0.05221069891492772</v>
+        <v>0.05141566251847239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>1068.426183924234</v>
@@ -883,10 +883,10 @@
         <v>9615.835655318104</v>
       </c>
       <c r="S7">
-        <v>0.4985107397628235</v>
+        <v>0.3726925949303601</v>
       </c>
       <c r="T7">
-        <v>0.4985107397628233</v>
+        <v>0.3726925949303603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>747.1218805982694</v>
+        <v>788.3385628837965</v>
       </c>
       <c r="R8">
-        <v>6724.096925384424</v>
+        <v>7095.047065954168</v>
       </c>
       <c r="S8">
-        <v>0.3485952394222181</v>
+        <v>0.2749913368892765</v>
       </c>
       <c r="T8">
-        <v>0.3485952394222179</v>
+        <v>0.2749913368892765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>67.30297838565467</v>
+        <v>99.22946620264867</v>
       </c>
       <c r="R9">
-        <v>605.726805470892</v>
+        <v>893.0651958238381</v>
       </c>
       <c r="S9">
-        <v>0.0314025040270384</v>
+        <v>0.03461361000793495</v>
       </c>
       <c r="T9">
-        <v>0.03140250402703839</v>
+        <v>0.03461361000793495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>4.860387314421778</v>
+        <v>46.61469575290401</v>
       </c>
       <c r="R10">
-        <v>43.743485829796</v>
+        <v>419.532261776136</v>
       </c>
       <c r="S10">
-        <v>0.002267779760644713</v>
+        <v>0.01626032025743672</v>
       </c>
       <c r="T10">
-        <v>0.002267779760644712</v>
+        <v>0.01626032025743672</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>46.40725609887378</v>
+        <v>337.8922116543253</v>
       </c>
       <c r="R11">
-        <v>417.665304889864</v>
+        <v>3041.029904888928</v>
       </c>
       <c r="S11">
-        <v>0.02165289087472694</v>
+        <v>0.1178648811335563</v>
       </c>
       <c r="T11">
-        <v>0.02165289087472693</v>
+        <v>0.1178648811335563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>32.45135412410934</v>
+        <v>249.3138642173973</v>
       </c>
       <c r="R12">
-        <v>292.062187116984</v>
+        <v>2243.824777956576</v>
       </c>
       <c r="S12">
-        <v>0.01514128799361426</v>
+        <v>0.08696663597855668</v>
       </c>
       <c r="T12">
-        <v>0.01514128799361425</v>
+        <v>0.08696663597855668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>2.923315247374667</v>
+        <v>31.381544463224</v>
       </c>
       <c r="R13">
-        <v>26.309837226372</v>
+        <v>282.433900169016</v>
       </c>
       <c r="S13">
-        <v>0.001363972606115042</v>
+        <v>0.01094663292129764</v>
       </c>
       <c r="T13">
-        <v>0.001363972606115041</v>
+        <v>0.01094663292129765</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>1.644073068183334</v>
+        <v>2.921558843746333</v>
       </c>
       <c r="R14">
-        <v>14.79665761365</v>
+        <v>26.294029593717</v>
       </c>
       <c r="S14">
-        <v>0.000767098461059738</v>
+        <v>0.001019109567980017</v>
       </c>
       <c r="T14">
-        <v>0.0007670984610597378</v>
+        <v>0.001019109567980017</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>15.69770369823333</v>
+        <v>21.17726959807955</v>
       </c>
       <c r="R15">
-        <v>141.2793332841</v>
+        <v>190.595426382716</v>
       </c>
       <c r="S15">
-        <v>0.007324299985275205</v>
+        <v>0.007387137903209409</v>
       </c>
       <c r="T15">
-        <v>0.007324299985275203</v>
+        <v>0.00738713790320941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>10.9769847319</v>
+        <v>15.62565438019689</v>
       </c>
       <c r="R16">
-        <v>98.7928625871</v>
+        <v>140.630889421772</v>
       </c>
       <c r="S16">
-        <v>0.005121687264314312</v>
+        <v>0.00545060179735683</v>
       </c>
       <c r="T16">
-        <v>0.005121687264314309</v>
+        <v>0.00545060179735683</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>0.9888396864500001</v>
+        <v>1.966826711536333</v>
       </c>
       <c r="R17">
-        <v>8.899557178050001</v>
+        <v>17.701440403827</v>
       </c>
       <c r="S17">
-        <v>0.000461376940228549</v>
+        <v>0.000686076176276867</v>
       </c>
       <c r="T17">
-        <v>0.0004613769402285488</v>
+        <v>0.0006860761762768671</v>
       </c>
     </row>
   </sheetData>
